--- a/Code/Results/Cases/Case_0_90/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_90/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.643407265736163</v>
+        <v>8.144923048233769</v>
       </c>
       <c r="D2">
-        <v>3.40291550255089</v>
+        <v>5.985329318825532</v>
       </c>
       <c r="E2">
-        <v>5.952992618351178</v>
+        <v>10.89523397165546</v>
       </c>
       <c r="F2">
-        <v>38.95525804616019</v>
+        <v>34.9474195185609</v>
       </c>
       <c r="G2">
-        <v>61.07072559014068</v>
+        <v>48.65861782161312</v>
       </c>
       <c r="H2">
-        <v>15.75103512699088</v>
+        <v>18.13475001300898</v>
       </c>
       <c r="I2">
-        <v>28.75862320364378</v>
+        <v>29.88768468568118</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.694955832662686</v>
+        <v>8.786270916479364</v>
       </c>
       <c r="M2">
-        <v>34.47765857672327</v>
+        <v>26.45699879384756</v>
       </c>
       <c r="N2">
-        <v>18.45415996960376</v>
+        <v>17.1832245783244</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.685021905314517</v>
+        <v>8.1653814908217</v>
       </c>
       <c r="D3">
-        <v>3.38364272001977</v>
+        <v>6.012278217060886</v>
       </c>
       <c r="E3">
-        <v>6.081479254303872</v>
+        <v>10.94219729129977</v>
       </c>
       <c r="F3">
-        <v>36.45680869799552</v>
+        <v>34.47795914709903</v>
       </c>
       <c r="G3">
-        <v>56.88147497990458</v>
+        <v>47.68840119806242</v>
       </c>
       <c r="H3">
-        <v>14.95072918622663</v>
+        <v>18.06106498245533</v>
       </c>
       <c r="I3">
-        <v>27.1092339206446</v>
+        <v>29.67976392764365</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>4.803188114574575</v>
+        <v>8.82268776377561</v>
       </c>
       <c r="M3">
-        <v>32.11174902084772</v>
+        <v>25.67477183505134</v>
       </c>
       <c r="N3">
-        <v>17.72821694574177</v>
+        <v>16.9544645273653</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.711850954095287</v>
+        <v>8.178647712473959</v>
       </c>
       <c r="D4">
-        <v>3.378311958887738</v>
+        <v>6.030275488145848</v>
       </c>
       <c r="E4">
-        <v>6.162238141938907</v>
+        <v>10.97248175825003</v>
       </c>
       <c r="F4">
-        <v>34.89404974686776</v>
+        <v>34.20026634595728</v>
       </c>
       <c r="G4">
-        <v>54.24599378477652</v>
+        <v>47.10387656138299</v>
       </c>
       <c r="H4">
-        <v>14.46117026847568</v>
+        <v>18.02146801213613</v>
       </c>
       <c r="I4">
-        <v>26.09125653974593</v>
+        <v>29.56228479846685</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>4.870815171236488</v>
+        <v>8.84610930233535</v>
       </c>
       <c r="M4">
-        <v>30.57803733548468</v>
+        <v>25.18450569200137</v>
       </c>
       <c r="N4">
-        <v>17.27105602081369</v>
+        <v>16.81459059331498</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.723102069678594</v>
+        <v>8.184231483854369</v>
       </c>
       <c r="D5">
-        <v>3.377634456938554</v>
+        <v>6.037972228221902</v>
       </c>
       <c r="E5">
-        <v>6.195643634171677</v>
+        <v>10.98518848811181</v>
       </c>
       <c r="F5">
-        <v>34.25020115355353</v>
+        <v>34.08989428093353</v>
       </c>
       <c r="G5">
-        <v>53.15618334538919</v>
+        <v>46.86885652797798</v>
       </c>
       <c r="H5">
-        <v>14.26223898976121</v>
+        <v>18.00675798569495</v>
       </c>
       <c r="I5">
-        <v>25.67532057593642</v>
+        <v>29.51700585018686</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>4.898695783583126</v>
+        <v>8.85592167801482</v>
       </c>
       <c r="M5">
-        <v>29.93239237874731</v>
+        <v>24.98249217192863</v>
       </c>
       <c r="N5">
-        <v>17.08212447121539</v>
+        <v>16.75780171870771</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.724989441766266</v>
+        <v>8.185169410471884</v>
       </c>
       <c r="D6">
-        <v>3.377608268783117</v>
+        <v>6.039272113470514</v>
       </c>
       <c r="E6">
-        <v>6.201221238911371</v>
+        <v>10.98732054675809</v>
       </c>
       <c r="F6">
-        <v>34.14287681596343</v>
+        <v>34.07173939699412</v>
       </c>
       <c r="G6">
-        <v>52.97427311454678</v>
+        <v>46.83003415834271</v>
       </c>
       <c r="H6">
-        <v>14.2292450110793</v>
+        <v>18.00440167086971</v>
       </c>
       <c r="I6">
-        <v>25.60619688201555</v>
+        <v>29.509644907444</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4.903345538991913</v>
+        <v>8.85756722579548</v>
       </c>
       <c r="M6">
-        <v>29.82392914271771</v>
+        <v>24.94882217883395</v>
       </c>
       <c r="N6">
-        <v>17.05060100608032</v>
+        <v>16.74838656899079</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.712001406337492</v>
+        <v>8.178722297102023</v>
       </c>
       <c r="D7">
-        <v>3.378296949884269</v>
+        <v>6.030377823154174</v>
       </c>
       <c r="E7">
-        <v>6.162686620787806</v>
+        <v>10.97265164382559</v>
       </c>
       <c r="F7">
-        <v>34.88539455833133</v>
+        <v>34.19876635985146</v>
       </c>
       <c r="G7">
-        <v>54.23135999628342</v>
+        <v>47.10069365127787</v>
       </c>
       <c r="H7">
-        <v>14.45848493326827</v>
+        <v>18.02126384667199</v>
       </c>
       <c r="I7">
-        <v>26.08565116700394</v>
+        <v>29.56166360422</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>4.871189840726895</v>
+        <v>8.846240549379287</v>
       </c>
       <c r="M7">
-        <v>30.56941387381972</v>
+        <v>25.18178989236918</v>
       </c>
       <c r="N7">
-        <v>17.26851835271013</v>
+        <v>16.81382378061651</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.657488658988954</v>
+        <v>8.151831162240878</v>
       </c>
       <c r="D8">
-        <v>3.394834034561174</v>
+        <v>5.994319000943004</v>
       </c>
       <c r="E8">
-        <v>5.996923602510747</v>
+        <v>10.91112698249997</v>
       </c>
       <c r="F8">
-        <v>38.09981304989466</v>
+        <v>34.78344158510624</v>
       </c>
       <c r="G8">
-        <v>59.63935623612385</v>
+        <v>48.32198358138392</v>
       </c>
       <c r="H8">
-        <v>15.47475701922204</v>
+        <v>18.10817604474682</v>
       </c>
       <c r="I8">
-        <v>28.19109353683061</v>
+        <v>29.81390152275779</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.732048380425767</v>
+        <v>8.798607746551534</v>
       </c>
       <c r="M8">
-        <v>33.67854322065507</v>
+        <v>26.18952045894661</v>
       </c>
       <c r="N8">
-        <v>18.20636061571227</v>
+        <v>17.10426464141373</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.560924931734353</v>
+        <v>8.104666551647407</v>
       </c>
       <c r="D9">
-        <v>3.485509587033954</v>
+        <v>5.935210177142753</v>
       </c>
       <c r="E9">
-        <v>5.685364648482508</v>
+        <v>10.80191531658053</v>
       </c>
       <c r="F9">
-        <v>44.36920521089651</v>
+        <v>36.00749666671455</v>
       </c>
       <c r="G9">
-        <v>69.86186218543649</v>
+        <v>50.78966589712039</v>
       </c>
       <c r="H9">
-        <v>17.4806035517962</v>
+        <v>18.32303280332421</v>
       </c>
       <c r="I9">
-        <v>32.29115805238933</v>
+        <v>30.38762056348939</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>4.467098389442496</v>
+        <v>8.713575942356767</v>
       </c>
       <c r="M9">
-        <v>39.14593081236659</v>
+        <v>28.07516988456292</v>
       </c>
       <c r="N9">
-        <v>19.94588341825203</v>
+        <v>17.67569215225874</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.496680957030458</v>
+        <v>8.073378300717064</v>
       </c>
       <c r="D10">
-        <v>3.59737238758751</v>
+        <v>5.898986026059093</v>
       </c>
       <c r="E10">
-        <v>5.462596232497419</v>
+        <v>10.72856918284329</v>
       </c>
       <c r="F10">
-        <v>48.97252719880446</v>
+        <v>36.94534218860485</v>
       </c>
       <c r="G10">
-        <v>77.14169008721395</v>
+        <v>52.62573985771135</v>
       </c>
       <c r="H10">
-        <v>19.23243496265304</v>
+        <v>18.50732982982465</v>
       </c>
       <c r="I10">
-        <v>35.67880086270279</v>
+        <v>30.85468333748777</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.275023470964898</v>
+        <v>8.656143933959621</v>
       </c>
       <c r="M10">
-        <v>42.79998209490616</v>
+        <v>29.39166396672252</v>
       </c>
       <c r="N10">
-        <v>21.15346006437594</v>
+        <v>18.09300629732182</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.469050459339335</v>
+        <v>8.059868147973344</v>
       </c>
       <c r="D11">
-        <v>3.660405013233161</v>
+        <v>5.884099556066542</v>
       </c>
       <c r="E11">
-        <v>5.362028969452189</v>
+        <v>10.69668116406967</v>
       </c>
       <c r="F11">
-        <v>51.03498501775803</v>
+        <v>37.37845403399869</v>
       </c>
       <c r="G11">
-        <v>80.40750107178445</v>
+        <v>53.46168756791314</v>
       </c>
       <c r="H11">
-        <v>20.03839435525472</v>
+        <v>18.59673543996232</v>
       </c>
       <c r="I11">
-        <v>37.19929975395351</v>
+        <v>31.07639617290246</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.187605041653833</v>
+        <v>8.631097133926504</v>
       </c>
       <c r="M11">
-        <v>44.38903177559864</v>
+        <v>29.97313044034897</v>
       </c>
       <c r="N11">
-        <v>21.68604449412573</v>
+        <v>18.28155740915331</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.458834100245635</v>
+        <v>8.054855667372129</v>
       </c>
       <c r="D12">
-        <v>3.686233175615151</v>
+        <v>5.87869382340125</v>
       </c>
       <c r="E12">
-        <v>5.324002640231081</v>
+        <v>10.6848171362701</v>
       </c>
       <c r="F12">
-        <v>51.81261018909723</v>
+        <v>37.54323448998714</v>
       </c>
       <c r="G12">
-        <v>81.63948835699313</v>
+        <v>53.77799746736704</v>
       </c>
       <c r="H12">
-        <v>20.34261273342959</v>
+        <v>18.63137382122248</v>
       </c>
       <c r="I12">
-        <v>37.77300683094953</v>
+        <v>31.16162155182823</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.154435835027724</v>
+        <v>8.621766691925421</v>
       </c>
       <c r="M12">
-        <v>44.9807832977075</v>
+        <v>30.1906328115175</v>
       </c>
       <c r="N12">
-        <v>21.88522436639536</v>
+        <v>18.3527113444623</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.461023063405137</v>
+        <v>8.055930597767441</v>
       </c>
       <c r="D13">
-        <v>3.680579862766966</v>
+        <v>5.879847710381286</v>
       </c>
       <c r="E13">
-        <v>5.332190752125246</v>
+        <v>10.68736288943295</v>
       </c>
       <c r="F13">
-        <v>51.6452635455457</v>
+        <v>37.50771436044538</v>
       </c>
       <c r="G13">
-        <v>81.37433206611333</v>
+        <v>53.70989073391839</v>
       </c>
       <c r="H13">
-        <v>20.27712897868345</v>
+        <v>18.62387933625567</v>
       </c>
       <c r="I13">
-        <v>37.64952454012671</v>
+        <v>31.14321138086561</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.161583401562869</v>
+        <v>8.623769325158218</v>
       </c>
       <c r="M13">
-        <v>44.85377363601548</v>
+        <v>30.1439119623378</v>
       </c>
       <c r="N13">
-        <v>21.84243968948384</v>
+        <v>18.337398976157</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.468204888469059</v>
+        <v>8.059453696030106</v>
       </c>
       <c r="D14">
-        <v>3.662489352129238</v>
+        <v>5.883650170043657</v>
       </c>
       <c r="E14">
-        <v>5.358899736547441</v>
+        <v>10.69570087595302</v>
       </c>
       <c r="F14">
-        <v>51.09902082341475</v>
+        <v>37.39199610067016</v>
       </c>
       <c r="G14">
-        <v>80.50893923899243</v>
+        <v>53.48771742060446</v>
       </c>
       <c r="H14">
-        <v>20.06343921857449</v>
+        <v>18.59956959017394</v>
       </c>
       <c r="I14">
-        <v>37.2465346920782</v>
+        <v>31.08338267660719</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.184877886865658</v>
+        <v>8.630326427229621</v>
       </c>
       <c r="M14">
-        <v>44.43791227545337</v>
+        <v>29.99107930684202</v>
       </c>
       <c r="N14">
-        <v>21.70248163583157</v>
+        <v>18.28741656490861</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.472636707281421</v>
+        <v>8.061625163626426</v>
       </c>
       <c r="D15">
-        <v>3.651670204471157</v>
+        <v>5.886009503306338</v>
       </c>
       <c r="E15">
-        <v>5.375265322174775</v>
+        <v>10.7008356121141</v>
       </c>
       <c r="F15">
-        <v>50.76403021092999</v>
+        <v>37.32121088723989</v>
       </c>
       <c r="G15">
-        <v>79.97831230188901</v>
+        <v>53.35158787652104</v>
       </c>
       <c r="H15">
-        <v>19.93243581926251</v>
+        <v>18.58478049200626</v>
       </c>
       <c r="I15">
-        <v>36.99945171414104</v>
+        <v>31.04689905707186</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.199135926264769</v>
+        <v>8.634362899205863</v>
       </c>
       <c r="M15">
-        <v>44.1819020963701</v>
+        <v>29.8971099624605</v>
       </c>
       <c r="N15">
-        <v>21.61642570305253</v>
+        <v>18.25676704240331</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.498520125131174</v>
+        <v>8.074275731681428</v>
       </c>
       <c r="D16">
-        <v>3.593515148908259</v>
+        <v>5.899991142298077</v>
       </c>
       <c r="E16">
-        <v>5.469179588338939</v>
+        <v>10.73068276920611</v>
       </c>
       <c r="F16">
-        <v>48.83719769189512</v>
+        <v>36.91715388167954</v>
       </c>
       <c r="G16">
-        <v>76.92749046211159</v>
+        <v>52.57109290973083</v>
       </c>
       <c r="H16">
-        <v>19.17959898312526</v>
+        <v>18.50159748372553</v>
       </c>
       <c r="I16">
-        <v>35.57908974401595</v>
+        <v>30.84037468502266</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.280730742461219</v>
+        <v>8.657802437134707</v>
       </c>
       <c r="M16">
-        <v>42.69470509495626</v>
+        <v>29.35329733848007</v>
       </c>
       <c r="N16">
-        <v>21.11830913023688</v>
+        <v>18.08065285950781</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.514817876741766</v>
+        <v>8.08222130995912</v>
       </c>
       <c r="D17">
-        <v>3.561094522887899</v>
+        <v>5.908977967960308</v>
       </c>
       <c r="E17">
-        <v>5.526954287671138</v>
+        <v>10.74937060981408</v>
       </c>
       <c r="F17">
-        <v>47.64779290933135</v>
+        <v>36.67082258688598</v>
       </c>
       <c r="G17">
-        <v>75.04537578767442</v>
+        <v>52.09221381728011</v>
       </c>
       <c r="H17">
-        <v>18.71548895673438</v>
+        <v>18.45198105642971</v>
       </c>
       <c r="I17">
-        <v>34.70304199916723</v>
+        <v>30.71600329528067</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.33073623103769</v>
+        <v>8.672457583999611</v>
       </c>
       <c r="M17">
-        <v>41.76396676034008</v>
+        <v>29.01509006775362</v>
       </c>
       <c r="N17">
-        <v>20.80836898274132</v>
+        <v>17.97223864745011</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.524340665589373</v>
+        <v>8.086859478168032</v>
       </c>
       <c r="D18">
-        <v>3.543576464224701</v>
+        <v>5.914296653519638</v>
       </c>
       <c r="E18">
-        <v>5.560261087403208</v>
+        <v>10.76025850230306</v>
       </c>
       <c r="F18">
-        <v>46.96061778630272</v>
+        <v>36.52975900557413</v>
       </c>
       <c r="G18">
-        <v>73.95838256271277</v>
+        <v>51.81686172333075</v>
       </c>
       <c r="H18">
-        <v>18.44757181951765</v>
+        <v>18.42396828935887</v>
       </c>
       <c r="I18">
-        <v>34.19716303559744</v>
+        <v>30.64534212252833</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.359498155072001</v>
+        <v>8.680988484237592</v>
       </c>
       <c r="M18">
-        <v>41.22170421888206</v>
+        <v>28.81893281464736</v>
       </c>
       <c r="N18">
-        <v>20.62852690174693</v>
+        <v>17.90976403940081</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.527590022043927</v>
+        <v>8.088441589062951</v>
       </c>
       <c r="D19">
-        <v>3.537832988671512</v>
+        <v>5.91612310450329</v>
       </c>
       <c r="E19">
-        <v>5.571552830779305</v>
+        <v>10.76396888948554</v>
       </c>
       <c r="F19">
-        <v>46.7273953663809</v>
+        <v>36.4821086756362</v>
       </c>
       <c r="G19">
-        <v>73.58953076410683</v>
+        <v>51.7236579365786</v>
       </c>
       <c r="H19">
-        <v>18.35668049955057</v>
+        <v>18.41457439448953</v>
       </c>
       <c r="I19">
-        <v>34.02551416302666</v>
+        <v>30.62156939570873</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.369238122120947</v>
+        <v>8.683894387917224</v>
       </c>
       <c r="M19">
-        <v>41.03689880530796</v>
+        <v>28.75224336430022</v>
       </c>
       <c r="N19">
-        <v>20.56736850940954</v>
+        <v>17.88859290729792</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.513067448944812</v>
+        <v>8.081368446653249</v>
       </c>
       <c r="D20">
-        <v>3.564427389822718</v>
+        <v>5.908005793474617</v>
       </c>
       <c r="E20">
-        <v>5.520796541324606</v>
+        <v>10.74736686536855</v>
       </c>
       <c r="F20">
-        <v>47.77471632671919</v>
+        <v>36.6969820164161</v>
       </c>
       <c r="G20">
-        <v>75.2461785175514</v>
+        <v>52.14318492988465</v>
       </c>
       <c r="H20">
-        <v>18.76499206774809</v>
+        <v>18.45720857113416</v>
       </c>
       <c r="I20">
-        <v>34.79649998503364</v>
+        <v>30.72915282755858</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.32541345251247</v>
+        <v>8.670887005480939</v>
       </c>
       <c r="M20">
-        <v>41.86375868663815</v>
+        <v>29.05126282513327</v>
       </c>
       <c r="N20">
-        <v>20.84152614214588</v>
+        <v>17.98379214855896</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.46608854910603</v>
+        <v>8.058416070711731</v>
       </c>
       <c r="D21">
-        <v>3.667748000367933</v>
+        <v>5.882526993742921</v>
       </c>
       <c r="E21">
-        <v>5.351053611742506</v>
+        <v>10.69324608278485</v>
       </c>
       <c r="F21">
-        <v>51.25954666920008</v>
+        <v>37.42596572926576</v>
       </c>
       <c r="G21">
-        <v>80.7632364361851</v>
+        <v>53.55298445171455</v>
       </c>
       <c r="H21">
-        <v>20.1262274929194</v>
+        <v>18.60668887109026</v>
       </c>
       <c r="I21">
-        <v>37.36495071963233</v>
+        <v>31.10092192293005</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.178038042457384</v>
+        <v>8.628396269133288</v>
       </c>
       <c r="M21">
-        <v>44.56032713855544</v>
+        <v>30.03604422841862</v>
       </c>
       <c r="N21">
-        <v>21.74365910170984</v>
+        <v>18.30210477165564</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.436835772284406</v>
+        <v>8.044018558831338</v>
       </c>
       <c r="D22">
-        <v>3.826256906347338</v>
+        <v>5.867225390289068</v>
       </c>
       <c r="E22">
-        <v>5.240412819961447</v>
+        <v>10.65910593187616</v>
       </c>
       <c r="F22">
-        <v>53.51812301802526</v>
+        <v>37.90681576224469</v>
       </c>
       <c r="G22">
-        <v>84.34275839436401</v>
+        <v>54.47279090413709</v>
       </c>
       <c r="H22">
-        <v>21.01045607499884</v>
+        <v>18.70893378844063</v>
       </c>
       <c r="I22">
-        <v>39.03207350423622</v>
+        <v>31.35125212168409</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.081300919192356</v>
+        <v>8.601524683309078</v>
       </c>
       <c r="M22">
-        <v>46.264798542136</v>
+        <v>30.66392625446723</v>
       </c>
       <c r="N22">
-        <v>22.31866940570482</v>
+        <v>18.50867813617987</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.452308434209664</v>
+        <v>8.051647737744741</v>
       </c>
       <c r="D23">
-        <v>3.722072007975334</v>
+        <v>5.875267754057734</v>
       </c>
       <c r="E23">
-        <v>5.299457285061981</v>
+        <v>10.67721493733352</v>
       </c>
       <c r="F23">
-        <v>52.31395163100302</v>
+        <v>37.64982576166983</v>
       </c>
       <c r="G23">
-        <v>82.4339484060223</v>
+        <v>53.98212769155772</v>
       </c>
       <c r="H23">
-        <v>20.53884018124861</v>
+        <v>18.65395380198033</v>
       </c>
       <c r="I23">
-        <v>38.14300125298822</v>
+        <v>31.21699408059266</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.132992166468685</v>
+        <v>8.615784654436526</v>
       </c>
       <c r="M23">
-        <v>45.36018421537337</v>
+        <v>30.33030842640564</v>
       </c>
       <c r="N23">
-        <v>22.0131333017047</v>
+        <v>18.39857950089166</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.513858341990813</v>
+        <v>8.081753807619908</v>
       </c>
       <c r="D24">
-        <v>3.562917124827534</v>
+        <v>5.908444840179699</v>
       </c>
       <c r="E24">
-        <v>5.523580169887858</v>
+        <v>10.74827230960218</v>
       </c>
       <c r="F24">
-        <v>47.71734483178663</v>
+        <v>36.6851535955992</v>
       </c>
       <c r="G24">
-        <v>75.15541112726454</v>
+        <v>52.12014098209576</v>
       </c>
       <c r="H24">
-        <v>18.74261515184188</v>
+        <v>18.45484361442971</v>
       </c>
       <c r="I24">
-        <v>34.7542546312141</v>
+        <v>30.72320529798965</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.327819835523951</v>
+        <v>8.671596735468661</v>
       </c>
       <c r="M24">
-        <v>41.81866512482841</v>
+        <v>29.03491445676257</v>
       </c>
       <c r="N24">
-        <v>20.82654093312503</v>
+        <v>17.97856926028247</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.585907989088344</v>
+        <v>8.116832892016076</v>
       </c>
       <c r="D25">
-        <v>3.453774750285548</v>
+        <v>5.949945298271134</v>
       </c>
       <c r="E25">
-        <v>5.768404311826862</v>
+        <v>10.83024385772027</v>
       </c>
       <c r="F25">
-        <v>42.63966139130634</v>
+        <v>35.66894691913277</v>
       </c>
       <c r="G25">
-        <v>67.13019440150838</v>
+        <v>50.11652917486936</v>
       </c>
       <c r="H25">
-        <v>16.93653711372647</v>
+        <v>18.26021062517032</v>
       </c>
       <c r="I25">
-        <v>31.17522659689464</v>
+        <v>30.22420455622624</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>4.538140430408395</v>
+        <v>8.735689352051306</v>
       </c>
       <c r="M25">
-        <v>37.73224762251002</v>
+        <v>27.57623938656527</v>
       </c>
       <c r="N25">
-        <v>19.48707560716671</v>
+        <v>17.52128720317551</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_90/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_90/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.144923048233769</v>
+        <v>4.643407265736298</v>
       </c>
       <c r="D2">
-        <v>5.985329318825532</v>
+        <v>3.402915502550826</v>
       </c>
       <c r="E2">
-        <v>10.89523397165546</v>
+        <v>5.952992618351111</v>
       </c>
       <c r="F2">
-        <v>34.9474195185609</v>
+        <v>38.95525804616025</v>
       </c>
       <c r="G2">
-        <v>48.65861782161312</v>
+        <v>61.0707255901408</v>
       </c>
       <c r="H2">
-        <v>18.13475001300898</v>
+        <v>15.75103512699086</v>
       </c>
       <c r="I2">
-        <v>29.88768468568118</v>
+        <v>28.7586232036438</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.786270916479364</v>
+        <v>4.694955832662585</v>
       </c>
       <c r="M2">
-        <v>26.45699879384756</v>
+        <v>34.47765857672336</v>
       </c>
       <c r="N2">
-        <v>17.1832245783244</v>
+        <v>18.45415996960374</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.1653814908217</v>
+        <v>4.685021905314647</v>
       </c>
       <c r="D3">
-        <v>6.012278217060886</v>
+        <v>3.383642720019813</v>
       </c>
       <c r="E3">
-        <v>10.94219729129977</v>
+        <v>6.081479254303805</v>
       </c>
       <c r="F3">
-        <v>34.47795914709903</v>
+        <v>36.45680869799548</v>
       </c>
       <c r="G3">
-        <v>47.68840119806242</v>
+        <v>56.88147497990451</v>
       </c>
       <c r="H3">
-        <v>18.06106498245533</v>
+        <v>14.95072918622664</v>
       </c>
       <c r="I3">
-        <v>29.67976392764365</v>
+        <v>27.10923392064464</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.82268776377561</v>
+        <v>4.803188114574477</v>
       </c>
       <c r="M3">
-        <v>25.67477183505134</v>
+        <v>32.11174902084763</v>
       </c>
       <c r="N3">
-        <v>16.9544645273653</v>
+        <v>17.72821694574175</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.178647712473959</v>
+        <v>4.711850954095289</v>
       </c>
       <c r="D4">
-        <v>6.030275488145848</v>
+        <v>3.378311958887795</v>
       </c>
       <c r="E4">
-        <v>10.97248175825003</v>
+        <v>6.162238141938905</v>
       </c>
       <c r="F4">
-        <v>34.20026634595728</v>
+        <v>34.89404974686776</v>
       </c>
       <c r="G4">
-        <v>47.10387656138299</v>
+        <v>54.24599378477652</v>
       </c>
       <c r="H4">
-        <v>18.02146801213613</v>
+        <v>14.46117026847572</v>
       </c>
       <c r="I4">
-        <v>29.56228479846685</v>
+        <v>26.09125653974599</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.84610930233535</v>
+        <v>4.870815171236387</v>
       </c>
       <c r="M4">
-        <v>25.18450569200137</v>
+        <v>30.57803733548465</v>
       </c>
       <c r="N4">
-        <v>16.81459059331498</v>
+        <v>17.27105602081373</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.184231483854369</v>
+        <v>4.723102069678455</v>
       </c>
       <c r="D5">
-        <v>6.037972228221902</v>
+        <v>3.377634456938496</v>
       </c>
       <c r="E5">
-        <v>10.98518848811181</v>
+        <v>6.195643634171674</v>
       </c>
       <c r="F5">
-        <v>34.08989428093353</v>
+        <v>34.25020115355341</v>
       </c>
       <c r="G5">
-        <v>46.86885652797798</v>
+        <v>53.15618334538909</v>
       </c>
       <c r="H5">
-        <v>18.00675798569495</v>
+        <v>14.26223898976104</v>
       </c>
       <c r="I5">
-        <v>29.51700585018686</v>
+        <v>25.67532057593629</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.85592167801482</v>
+        <v>4.898695783583194</v>
       </c>
       <c r="M5">
-        <v>24.98249217192863</v>
+        <v>29.93239237874737</v>
       </c>
       <c r="N5">
-        <v>16.75780171870771</v>
+        <v>17.08212447121537</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.185169410471884</v>
+        <v>4.724989441766399</v>
       </c>
       <c r="D6">
-        <v>6.039272113470514</v>
+        <v>3.37760826878324</v>
       </c>
       <c r="E6">
-        <v>10.98732054675809</v>
+        <v>6.201221238911304</v>
       </c>
       <c r="F6">
-        <v>34.07173939699412</v>
+        <v>34.14287681596342</v>
       </c>
       <c r="G6">
-        <v>46.83003415834271</v>
+        <v>52.97427311454678</v>
       </c>
       <c r="H6">
-        <v>18.00440167086971</v>
+        <v>14.22924501107929</v>
       </c>
       <c r="I6">
-        <v>29.509644907444</v>
+        <v>25.60619688201554</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.85756722579548</v>
+        <v>4.903345538991847</v>
       </c>
       <c r="M6">
-        <v>24.94882217883395</v>
+        <v>29.82392914271773</v>
       </c>
       <c r="N6">
-        <v>16.74838656899079</v>
+        <v>17.0506010060803</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.178722297102023</v>
+        <v>4.712001406337488</v>
       </c>
       <c r="D7">
-        <v>6.030377823154174</v>
+        <v>3.378296949884321</v>
       </c>
       <c r="E7">
-        <v>10.97265164382559</v>
+        <v>6.162686620787806</v>
       </c>
       <c r="F7">
-        <v>34.19876635985146</v>
+        <v>34.88539455833137</v>
       </c>
       <c r="G7">
-        <v>47.10069365127787</v>
+        <v>54.2313599962835</v>
       </c>
       <c r="H7">
-        <v>18.02126384667199</v>
+        <v>14.45848493326828</v>
       </c>
       <c r="I7">
-        <v>29.56166360422</v>
+        <v>26.08565116700398</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.846240549379287</v>
+        <v>4.871189840726828</v>
       </c>
       <c r="M7">
-        <v>25.18178989236918</v>
+        <v>30.56941387381972</v>
       </c>
       <c r="N7">
-        <v>16.81382378061651</v>
+        <v>17.26851835271014</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.151831162240878</v>
+        <v>4.657488658988816</v>
       </c>
       <c r="D8">
-        <v>5.994319000943004</v>
+        <v>3.394834034561093</v>
       </c>
       <c r="E8">
-        <v>10.91112698249997</v>
+        <v>5.996923602510614</v>
       </c>
       <c r="F8">
-        <v>34.78344158510624</v>
+        <v>38.09981304989464</v>
       </c>
       <c r="G8">
-        <v>48.32198358138392</v>
+        <v>59.63935623612372</v>
       </c>
       <c r="H8">
-        <v>18.10817604474682</v>
+        <v>15.47475701922208</v>
       </c>
       <c r="I8">
-        <v>29.81390152275779</v>
+        <v>28.19109353683062</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.798607746551534</v>
+        <v>4.732048380425734</v>
       </c>
       <c r="M8">
-        <v>26.18952045894661</v>
+        <v>33.67854322065502</v>
       </c>
       <c r="N8">
-        <v>17.10426464141373</v>
+        <v>18.20636061571226</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.104666551647407</v>
+        <v>4.560924931734358</v>
       </c>
       <c r="D9">
-        <v>5.935210177142753</v>
+        <v>3.485509587033918</v>
       </c>
       <c r="E9">
-        <v>10.80191531658053</v>
+        <v>5.685364648482378</v>
       </c>
       <c r="F9">
-        <v>36.00749666671455</v>
+        <v>44.36920521089663</v>
       </c>
       <c r="G9">
-        <v>50.78966589712039</v>
+        <v>69.86186218543664</v>
       </c>
       <c r="H9">
-        <v>18.32303280332421</v>
+        <v>17.48060355179621</v>
       </c>
       <c r="I9">
-        <v>30.38762056348939</v>
+        <v>32.29115805238942</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.713575942356767</v>
+        <v>4.467098389442494</v>
       </c>
       <c r="M9">
-        <v>28.07516988456292</v>
+        <v>39.14593081236667</v>
       </c>
       <c r="N9">
-        <v>17.67569215225874</v>
+        <v>19.94588341825201</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.073378300717064</v>
+        <v>4.496680957030189</v>
       </c>
       <c r="D10">
-        <v>5.898986026059093</v>
+        <v>3.597372387587581</v>
       </c>
       <c r="E10">
-        <v>10.72856918284329</v>
+        <v>5.462596232497355</v>
       </c>
       <c r="F10">
-        <v>36.94534218860485</v>
+        <v>48.97252719880444</v>
       </c>
       <c r="G10">
-        <v>52.62573985771135</v>
+        <v>77.14169008721392</v>
       </c>
       <c r="H10">
-        <v>18.50732982982465</v>
+        <v>19.23243496265301</v>
       </c>
       <c r="I10">
-        <v>30.85468333748777</v>
+        <v>35.67880086270278</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.656143933959621</v>
+        <v>4.275023470964936</v>
       </c>
       <c r="M10">
-        <v>29.39166396672252</v>
+        <v>42.79998209490616</v>
       </c>
       <c r="N10">
-        <v>18.09300629732182</v>
+        <v>21.15346006437593</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.059868147973344</v>
+        <v>4.469050459339469</v>
       </c>
       <c r="D11">
-        <v>5.884099556066542</v>
+        <v>3.660405013233128</v>
       </c>
       <c r="E11">
-        <v>10.69668116406967</v>
+        <v>5.362028969452219</v>
       </c>
       <c r="F11">
-        <v>37.37845403399869</v>
+        <v>51.03498501775794</v>
       </c>
       <c r="G11">
-        <v>53.46168756791314</v>
+        <v>80.40750107178427</v>
       </c>
       <c r="H11">
-        <v>18.59673543996232</v>
+        <v>20.03839435525468</v>
       </c>
       <c r="I11">
-        <v>31.07639617290246</v>
+        <v>37.19929975395345</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.631097133926504</v>
+        <v>4.187605041653832</v>
       </c>
       <c r="M11">
-        <v>29.97313044034897</v>
+        <v>44.3890317755986</v>
       </c>
       <c r="N11">
-        <v>18.28155740915331</v>
+        <v>21.68604449412573</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.054855667372129</v>
+        <v>4.45883410024564</v>
       </c>
       <c r="D12">
-        <v>5.87869382340125</v>
+        <v>3.686233175615137</v>
       </c>
       <c r="E12">
-        <v>10.6848171362701</v>
+        <v>5.32400264023109</v>
       </c>
       <c r="F12">
-        <v>37.54323448998714</v>
+        <v>51.81261018909715</v>
       </c>
       <c r="G12">
-        <v>53.77799746736704</v>
+        <v>81.63948835699306</v>
       </c>
       <c r="H12">
-        <v>18.63137382122248</v>
+        <v>20.34261273342955</v>
       </c>
       <c r="I12">
-        <v>31.16162155182823</v>
+        <v>37.77300683094947</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.621766691925421</v>
+        <v>4.154435835027689</v>
       </c>
       <c r="M12">
-        <v>30.1906328115175</v>
+        <v>44.98078329770745</v>
       </c>
       <c r="N12">
-        <v>18.3527113444623</v>
+        <v>21.88522436639535</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.055930597767441</v>
+        <v>4.461023063404867</v>
       </c>
       <c r="D13">
-        <v>5.879847710381286</v>
+        <v>3.6805798627669</v>
       </c>
       <c r="E13">
-        <v>10.68736288943295</v>
+        <v>5.332190752125272</v>
       </c>
       <c r="F13">
-        <v>37.50771436044538</v>
+        <v>51.6452635455458</v>
       </c>
       <c r="G13">
-        <v>53.70989073391839</v>
+        <v>81.37433206611333</v>
       </c>
       <c r="H13">
-        <v>18.62387933625567</v>
+        <v>20.27712897868351</v>
       </c>
       <c r="I13">
-        <v>31.14321138086561</v>
+        <v>37.64952454012678</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.623769325158218</v>
+        <v>4.161583401562901</v>
       </c>
       <c r="M13">
-        <v>30.1439119623378</v>
+        <v>44.85377363601553</v>
       </c>
       <c r="N13">
-        <v>18.337398976157</v>
+        <v>21.84243968948383</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.059453696030106</v>
+        <v>4.468204888469056</v>
       </c>
       <c r="D14">
-        <v>5.883650170043657</v>
+        <v>3.662489352129223</v>
       </c>
       <c r="E14">
-        <v>10.69570087595302</v>
+        <v>5.358899736547341</v>
       </c>
       <c r="F14">
-        <v>37.39199610067016</v>
+        <v>51.09902082341484</v>
       </c>
       <c r="G14">
-        <v>53.48771742060446</v>
+        <v>80.50893923899254</v>
       </c>
       <c r="H14">
-        <v>18.59956959017394</v>
+        <v>20.06343921857453</v>
       </c>
       <c r="I14">
-        <v>31.08338267660719</v>
+        <v>37.24653469207827</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.630326427229621</v>
+        <v>4.184877886865594</v>
       </c>
       <c r="M14">
-        <v>29.99107930684202</v>
+        <v>44.4379122754534</v>
       </c>
       <c r="N14">
-        <v>18.28741656490861</v>
+        <v>21.70248163583155</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.061625163626426</v>
+        <v>4.472636707281553</v>
       </c>
       <c r="D15">
-        <v>5.886009503306338</v>
+        <v>3.651670204471179</v>
       </c>
       <c r="E15">
-        <v>10.7008356121141</v>
+        <v>5.375265322174938</v>
       </c>
       <c r="F15">
-        <v>37.32121088723989</v>
+        <v>50.76403021093026</v>
       </c>
       <c r="G15">
-        <v>53.35158787652104</v>
+        <v>79.97831230188928</v>
       </c>
       <c r="H15">
-        <v>18.58478049200626</v>
+        <v>19.93243581926258</v>
       </c>
       <c r="I15">
-        <v>31.04689905707186</v>
+        <v>36.99945171414116</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.634362899205863</v>
+        <v>4.199135926264835</v>
       </c>
       <c r="M15">
-        <v>29.8971099624605</v>
+        <v>44.1819020963702</v>
       </c>
       <c r="N15">
-        <v>18.25676704240331</v>
+        <v>21.61642570305255</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.074275731681428</v>
+        <v>4.498520125131299</v>
       </c>
       <c r="D16">
-        <v>5.899991142298077</v>
+        <v>3.593515148908277</v>
       </c>
       <c r="E16">
-        <v>10.73068276920611</v>
+        <v>5.469179588339066</v>
       </c>
       <c r="F16">
-        <v>36.91715388167954</v>
+        <v>48.83719769189507</v>
       </c>
       <c r="G16">
-        <v>52.57109290973083</v>
+        <v>76.92749046211155</v>
       </c>
       <c r="H16">
-        <v>18.50159748372553</v>
+        <v>19.17959898312522</v>
       </c>
       <c r="I16">
-        <v>30.84037468502266</v>
+        <v>35.57908974401592</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.657802437134707</v>
+        <v>4.280730742461287</v>
       </c>
       <c r="M16">
-        <v>29.35329733848007</v>
+        <v>42.69470509495618</v>
       </c>
       <c r="N16">
-        <v>18.08065285950781</v>
+        <v>21.11830913023685</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.08222130995912</v>
+        <v>4.514817876741901</v>
       </c>
       <c r="D17">
-        <v>5.908977967960308</v>
+        <v>3.561094522887882</v>
       </c>
       <c r="E17">
-        <v>10.74937060981408</v>
+        <v>5.526954287671203</v>
       </c>
       <c r="F17">
-        <v>36.67082258688598</v>
+        <v>47.6477929093313</v>
       </c>
       <c r="G17">
-        <v>52.09221381728011</v>
+        <v>75.04537578767429</v>
       </c>
       <c r="H17">
-        <v>18.45198105642971</v>
+        <v>18.71548895673435</v>
       </c>
       <c r="I17">
-        <v>30.71600329528067</v>
+        <v>34.70304199916717</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.672457583999611</v>
+        <v>4.330736231037757</v>
       </c>
       <c r="M17">
-        <v>29.01509006775362</v>
+        <v>41.76396676034</v>
       </c>
       <c r="N17">
-        <v>17.97223864745011</v>
+        <v>20.8083689827413</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.086859478168032</v>
+        <v>4.524340665588967</v>
       </c>
       <c r="D18">
-        <v>5.914296653519638</v>
+        <v>3.543576464224734</v>
       </c>
       <c r="E18">
-        <v>10.76025850230306</v>
+        <v>5.560261087403207</v>
       </c>
       <c r="F18">
-        <v>36.52975900557413</v>
+        <v>46.96061778630278</v>
       </c>
       <c r="G18">
-        <v>51.81686172333075</v>
+        <v>73.95838256271286</v>
       </c>
       <c r="H18">
-        <v>18.42396828935887</v>
+        <v>18.44757181951769</v>
       </c>
       <c r="I18">
-        <v>30.64534212252833</v>
+        <v>34.19716303559753</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.680988484237592</v>
+        <v>4.359498155072036</v>
       </c>
       <c r="M18">
-        <v>28.81893281464736</v>
+        <v>41.22170421888211</v>
       </c>
       <c r="N18">
-        <v>17.90976403940081</v>
+        <v>20.62852690174693</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.088441589062951</v>
+        <v>4.527590022044062</v>
       </c>
       <c r="D19">
-        <v>5.91612310450329</v>
+        <v>3.537832988671505</v>
       </c>
       <c r="E19">
-        <v>10.76396888948554</v>
+        <v>5.571552830779376</v>
       </c>
       <c r="F19">
-        <v>36.4821086756362</v>
+        <v>46.72739536638079</v>
       </c>
       <c r="G19">
-        <v>51.7236579365786</v>
+        <v>73.58953076410667</v>
       </c>
       <c r="H19">
-        <v>18.41457439448953</v>
+        <v>18.35668049955052</v>
       </c>
       <c r="I19">
-        <v>30.62156939570873</v>
+        <v>34.02551416302656</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.683894387917224</v>
+        <v>4.369238122120947</v>
       </c>
       <c r="M19">
-        <v>28.75224336430022</v>
+        <v>41.03689880530788</v>
       </c>
       <c r="N19">
-        <v>17.88859290729792</v>
+        <v>20.56736850940958</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.081368446653249</v>
+        <v>4.513067448944679</v>
       </c>
       <c r="D20">
-        <v>5.908005793474617</v>
+        <v>3.564427389822789</v>
       </c>
       <c r="E20">
-        <v>10.74736686536855</v>
+        <v>5.520796541324605</v>
       </c>
       <c r="F20">
-        <v>36.6969820164161</v>
+        <v>47.77471632671923</v>
       </c>
       <c r="G20">
-        <v>52.14318492988465</v>
+        <v>75.24617851755143</v>
       </c>
       <c r="H20">
-        <v>18.45720857113416</v>
+        <v>18.76499206774811</v>
       </c>
       <c r="I20">
-        <v>30.72915282755858</v>
+        <v>34.79649998503368</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.670887005480939</v>
+        <v>4.325413452512466</v>
       </c>
       <c r="M20">
-        <v>29.05126282513327</v>
+        <v>41.86375868663818</v>
       </c>
       <c r="N20">
-        <v>17.98379214855896</v>
+        <v>20.84152614214588</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.058416070711731</v>
+        <v>4.466088549106027</v>
       </c>
       <c r="D21">
-        <v>5.882526993742921</v>
+        <v>3.667748000367951</v>
       </c>
       <c r="E21">
-        <v>10.69324608278485</v>
+        <v>5.351053611742442</v>
       </c>
       <c r="F21">
-        <v>37.42596572926576</v>
+        <v>51.25954666919972</v>
       </c>
       <c r="G21">
-        <v>53.55298445171455</v>
+        <v>80.76323643618444</v>
       </c>
       <c r="H21">
-        <v>18.60668887109026</v>
+        <v>20.12622749291925</v>
       </c>
       <c r="I21">
-        <v>31.10092192293005</v>
+        <v>37.36495071963203</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.628396269133288</v>
+        <v>4.17803804245732</v>
       </c>
       <c r="M21">
-        <v>30.03604422841862</v>
+        <v>44.56032713855523</v>
       </c>
       <c r="N21">
-        <v>18.30210477165564</v>
+        <v>21.74365910170983</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.044018558831338</v>
+        <v>4.436835772284539</v>
       </c>
       <c r="D22">
-        <v>5.867225390289068</v>
+        <v>3.826256906347426</v>
       </c>
       <c r="E22">
-        <v>10.65910593187616</v>
+        <v>5.240412819961447</v>
       </c>
       <c r="F22">
-        <v>37.90681576224469</v>
+        <v>53.51812301802516</v>
       </c>
       <c r="G22">
-        <v>54.47279090413709</v>
+        <v>84.34275839436395</v>
       </c>
       <c r="H22">
-        <v>18.70893378844063</v>
+        <v>21.01045607499881</v>
       </c>
       <c r="I22">
-        <v>31.35125212168409</v>
+        <v>39.03207350423614</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.601524683309078</v>
+        <v>4.081300919192321</v>
       </c>
       <c r="M22">
-        <v>30.66392625446723</v>
+        <v>46.26479854213595</v>
       </c>
       <c r="N22">
-        <v>18.50867813617987</v>
+        <v>22.31866940570482</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.051647737744741</v>
+        <v>4.4523084342098</v>
       </c>
       <c r="D23">
-        <v>5.875267754057734</v>
+        <v>3.722072007975261</v>
       </c>
       <c r="E23">
-        <v>10.67721493733352</v>
+        <v>5.299457285062013</v>
       </c>
       <c r="F23">
-        <v>37.64982576166983</v>
+        <v>52.313951631003</v>
       </c>
       <c r="G23">
-        <v>53.98212769155772</v>
+        <v>82.43394840602222</v>
       </c>
       <c r="H23">
-        <v>18.65395380198033</v>
+        <v>20.53884018124856</v>
       </c>
       <c r="I23">
-        <v>31.21699408059266</v>
+        <v>38.14300125298816</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.615784654436526</v>
+        <v>4.132992166468685</v>
       </c>
       <c r="M23">
-        <v>30.33030842640564</v>
+        <v>45.36018421537335</v>
       </c>
       <c r="N23">
-        <v>18.39857950089166</v>
+        <v>22.01313330170473</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.081753807619908</v>
+        <v>4.513858341990812</v>
       </c>
       <c r="D24">
-        <v>5.908444840179699</v>
+        <v>3.562917124827534</v>
       </c>
       <c r="E24">
-        <v>10.74827230960218</v>
+        <v>5.523580169887858</v>
       </c>
       <c r="F24">
-        <v>36.6851535955992</v>
+        <v>47.71734483178646</v>
       </c>
       <c r="G24">
-        <v>52.12014098209576</v>
+        <v>75.15541112726419</v>
       </c>
       <c r="H24">
-        <v>18.45484361442971</v>
+        <v>18.74261515184183</v>
       </c>
       <c r="I24">
-        <v>30.72320529798965</v>
+        <v>34.75425463121395</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.671596735468661</v>
+        <v>4.327819835523917</v>
       </c>
       <c r="M24">
-        <v>29.03491445676257</v>
+        <v>41.81866512482831</v>
       </c>
       <c r="N24">
-        <v>17.97856926028247</v>
+        <v>20.82654093312505</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.116832892016076</v>
+        <v>4.585907989088346</v>
       </c>
       <c r="D25">
-        <v>5.949945298271134</v>
+        <v>3.453774750285681</v>
       </c>
       <c r="E25">
-        <v>10.83024385772027</v>
+        <v>5.768404311826862</v>
       </c>
       <c r="F25">
-        <v>35.66894691913277</v>
+        <v>42.63966139130629</v>
       </c>
       <c r="G25">
-        <v>50.11652917486936</v>
+        <v>67.13019440150832</v>
       </c>
       <c r="H25">
-        <v>18.26021062517032</v>
+        <v>16.93653711372648</v>
       </c>
       <c r="I25">
-        <v>30.22420455622624</v>
+        <v>31.17522659689464</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.735689352051306</v>
+        <v>4.538140430408395</v>
       </c>
       <c r="M25">
-        <v>27.57623938656527</v>
+        <v>37.73224762251001</v>
       </c>
       <c r="N25">
-        <v>17.52128720317551</v>
+        <v>19.48707560716673</v>
       </c>
       <c r="O25">
         <v>0</v>
